--- a/forms/app/prenatal_followup.xlsx
+++ b/forms/app/prenatal_followup.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="714">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -828,10 +828,10 @@
     <t xml:space="preserve">${s_anc_1_visit}='yes' or ${follow_up_count}&gt;1</t>
   </si>
   <si>
-    <t xml:space="preserve">. &gt;= 1 and . &lt;= 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le nombre doit être compris entre 1 et 8</t>
+    <t xml:space="preserve">. &gt;= 0 and . &lt;= 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le nombre doit être compris entre 0 et 8</t>
   </si>
   <si>
     <t xml:space="preserve">s_vat_faf_analysis</t>
@@ -841,6 +841,9 @@
   </si>
   <si>
     <t xml:space="preserve">VAT, FAF et ANALYSES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">${is_woman_available} = ‘yes’ and (((${s_task_to_perform} = 'follow_up') and (${able_to_continue} = 'yes' or ${able_to_continue} = ''))) and ${s_anc_number} &gt;0</t>
   </si>
   <si>
     <t xml:space="preserve">s_vat</t>
@@ -2195,9 +2198,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2808,7 +2812,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2884,8 +2888,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3011,8 +3015,8 @@
   </sheetPr>
   <dimension ref="A1:IZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A139" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I104" activeCellId="0" sqref="I104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E38" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8658,7 +8662,7 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="4" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="I82" s="4" t="s">
         <v>22</v>
@@ -8670,13 +8674,13 @@
         <v>126</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" s="31" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D83" s="31" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E83" s="32" t="s">
         <v>81</v>
@@ -8697,13 +8701,13 @@
         <v>262</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C84" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D84" s="31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E84" s="26" t="s">
         <v>81</v>
@@ -8715,17 +8719,17 @@
         <v>83</v>
       </c>
       <c r="H84" s="25" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I84" s="31"/>
       <c r="J84" s="31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8733,13 +8737,13 @@
         <v>126</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D85" s="31" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E85" s="26" t="s">
         <v>81</v>
@@ -8760,13 +8764,13 @@
         <v>148</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C86" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D86" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E86" s="26"/>
       <c r="F86" s="1" t="s">
@@ -8776,7 +8780,7 @@
         <v>83</v>
       </c>
       <c r="H86" s="25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I86" s="31"/>
     </row>
@@ -8785,17 +8789,17 @@
         <v>148</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C87" s="31" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D87" s="31" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E87" s="26"/>
       <c r="H87" s="25" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="I87" s="31"/>
     </row>
@@ -8804,13 +8808,13 @@
         <v>126</v>
       </c>
       <c r="B88" s="31" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C88" s="31" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D88" s="31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E88" s="26" t="s">
         <v>81</v>
@@ -8831,13 +8835,13 @@
         <v>148</v>
       </c>
       <c r="B89" s="31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C89" s="31" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D89" s="31" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E89" s="26"/>
       <c r="F89" s="1" t="s">
@@ -8847,7 +8851,7 @@
         <v>83</v>
       </c>
       <c r="H89" s="31" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="I89" s="31"/>
     </row>
@@ -8856,17 +8860,17 @@
         <v>148</v>
       </c>
       <c r="B90" s="31" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D90" s="31" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E90" s="26"/>
       <c r="H90" s="31" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I90" s="31"/>
     </row>
@@ -8885,19 +8889,19 @@
         <v>18</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="4" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>22</v>
@@ -8909,13 +8913,13 @@
         <v>126</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E93" s="26"/>
       <c r="H93" s="31"/>
@@ -8928,13 +8932,13 @@
         <v>126</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E94" s="26" t="s">
         <v>81</v>
@@ -8946,7 +8950,7 @@
         <v>83</v>
       </c>
       <c r="H94" s="31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>130</v>
@@ -8954,16 +8958,16 @@
     </row>
     <row r="95" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C95" s="31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D95" s="31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E95" s="26" t="s">
         <v>81</v>
@@ -8975,7 +8979,7 @@
         <v>83</v>
       </c>
       <c r="H95" s="31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I95" s="31"/>
     </row>
@@ -8984,10 +8988,10 @@
         <v>253</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>256</v>
@@ -9002,7 +9006,7 @@
         <v>83</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="I96" s="31"/>
     </row>
@@ -9021,16 +9025,16 @@
         <v>18</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>221</v>
+        <v>272</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>22</v>
@@ -9041,13 +9045,13 @@
         <v>148</v>
       </c>
       <c r="B99" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C99" s="24" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D99" s="25" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="32"/>
@@ -9060,13 +9064,13 @@
         <v>126</v>
       </c>
       <c r="B100" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C100" s="24" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D100" s="25" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="1"/>
@@ -9078,22 +9082,22 @@
     </row>
     <row r="101" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B101" s="24" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C101" s="24" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D101" s="25" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E101" s="26"/>
       <c r="F101" s="32"/>
       <c r="G101" s="32"/>
       <c r="H101" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>130</v>
@@ -9104,17 +9108,17 @@
         <v>148</v>
       </c>
       <c r="B102" s="24" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C102" s="24" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D102" s="25" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E102" s="26"/>
       <c r="H102" s="25" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I102" s="25"/>
     </row>
@@ -9123,36 +9127,36 @@
         <v>148</v>
       </c>
       <c r="B103" s="24" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D103" s="25" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E103" s="26"/>
       <c r="H103" s="25" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I103" s="25"/>
     </row>
     <row r="104" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="24" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B104" s="24" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D104" s="25" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E104" s="26"/>
       <c r="H104" s="25" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I104" s="1" t="s">
         <v>130</v>
@@ -9163,13 +9167,13 @@
         <v>126</v>
       </c>
       <c r="B105" s="24" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E105" s="26"/>
       <c r="F105" s="1"/>
@@ -9183,31 +9187,31 @@
         <v>253</v>
       </c>
       <c r="B106" s="24" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E106" s="26"/>
       <c r="H106" s="25" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B107" s="24" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E107" s="26"/>
     </row>
@@ -9216,16 +9220,16 @@
         <v>148</v>
       </c>
       <c r="B108" s="31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C108" s="31" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H108" s="31" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I108" s="31"/>
     </row>
@@ -9234,32 +9238,32 @@
         <v>148</v>
       </c>
       <c r="B109" s="31" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C109" s="31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D109" s="31" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E109" s="26"/>
       <c r="H109" s="31" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I109" s="31"/>
     </row>
     <row r="110" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B110" s="31" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C110" s="33" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E110" s="26"/>
       <c r="H110" s="31"/>
@@ -9270,10 +9274,10 @@
         <v>253</v>
       </c>
       <c r="B111" s="31" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C111" s="31" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D111" s="31" t="s">
         <v>256</v>
@@ -9282,7 +9286,7 @@
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
       <c r="H111" s="31" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I111" s="31"/>
     </row>
@@ -9291,21 +9295,21 @@
         <v>262</v>
       </c>
       <c r="B112" s="31" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C112" s="31" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D112" s="31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E112" s="26"/>
       <c r="H112" s="31"/>
       <c r="I112" s="31" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9313,32 +9317,32 @@
         <v>253</v>
       </c>
       <c r="B113" s="31" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C113" s="31" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D113" s="31" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E113" s="26"/>
       <c r="H113" s="31"/>
       <c r="I113" s="31" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="12" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B114" s="31" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C114" s="31" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D114" s="31" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E114" s="26"/>
       <c r="H114" s="31"/>
@@ -9346,16 +9350,16 @@
     </row>
     <row r="115" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="31" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B115" s="31" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C115" s="31" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D115" s="31" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E115" s="26"/>
       <c r="H115" s="31"/>
@@ -9363,16 +9367,16 @@
     </row>
     <row r="116" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="31" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E116" s="26"/>
       <c r="H116" s="31"/>
@@ -9383,13 +9387,13 @@
         <v>148</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D117" s="33" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E117" s="26"/>
       <c r="H117" s="31"/>
@@ -9410,16 +9414,16 @@
         <v>18</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H119" s="20" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I119" s="18" t="s">
         <v>22</v>
@@ -9427,16 +9431,16 @@
     </row>
     <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>81</v>
@@ -9453,10 +9457,10 @@
         <v>253</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>256</v>
@@ -9471,7 +9475,7 @@
         <v>83</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9497,16 +9501,16 @@
         <v>18</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I124" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9514,17 +9518,17 @@
         <v>148</v>
       </c>
       <c r="B125" s="31" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C125" s="31" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H125" s="31"/>
       <c r="I125" s="31" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9532,13 +9536,13 @@
         <v>148</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C126" s="22" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D126" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="127" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9546,7 +9550,7 @@
         <v>18</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C127" s="35"/>
       <c r="D127" s="35"/>
@@ -9557,16 +9561,16 @@
         <v>148</v>
       </c>
       <c r="B128" s="37" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D128" s="21" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9574,7 +9578,7 @@
         <v>148</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>153</v>
@@ -9583,10 +9587,10 @@
         <v>154</v>
       </c>
       <c r="H129" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9594,7 +9598,7 @@
         <v>148</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>162</v>
@@ -9603,10 +9607,10 @@
         <v>163</v>
       </c>
       <c r="H130" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9614,7 +9618,7 @@
         <v>148</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>165</v>
@@ -9623,10 +9627,10 @@
         <v>166</v>
       </c>
       <c r="H131" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9634,19 +9638,19 @@
         <v>148</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>168</v>
       </c>
       <c r="D132" s="22" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="H132" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9654,19 +9658,19 @@
         <v>148</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D133" s="22" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H133" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9674,19 +9678,19 @@
         <v>148</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D134" s="22" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="H134" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9694,19 +9698,19 @@
         <v>148</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D135" s="22" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="H135" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9714,7 +9718,7 @@
         <v>148</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>180</v>
@@ -9723,10 +9727,10 @@
         <v>181</v>
       </c>
       <c r="H136" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9734,19 +9738,19 @@
         <v>148</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C137" s="23" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9754,7 +9758,7 @@
         <v>148</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>186</v>
@@ -9763,10 +9767,10 @@
         <v>187</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9774,7 +9778,7 @@
         <v>148</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>189</v>
@@ -9783,10 +9787,10 @@
         <v>190</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9794,19 +9798,19 @@
         <v>148</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C140" s="23" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D140" s="22" t="s">
         <v>193</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9814,7 +9818,7 @@
         <v>148</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C141" s="12" t="s">
         <v>195</v>
@@ -9823,10 +9827,10 @@
         <v>196</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9834,19 +9838,19 @@
         <v>148</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D142" s="22" t="s">
         <v>199</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9854,7 +9858,7 @@
         <v>148</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C143" s="12" t="s">
         <v>201</v>
@@ -9863,10 +9867,10 @@
         <v>202</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9874,19 +9878,19 @@
         <v>148</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C144" s="12" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D144" s="22" t="s">
         <v>205</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9894,7 +9898,7 @@
         <v>148</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C145" s="12" t="s">
         <v>207</v>
@@ -9903,10 +9907,10 @@
         <v>208</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9914,7 +9918,7 @@
         <v>148</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" s="12" t="s">
         <v>210</v>
@@ -9923,10 +9927,10 @@
         <v>210</v>
       </c>
       <c r="H146" s="10" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I146" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9934,19 +9938,19 @@
         <v>148</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9954,16 +9958,16 @@
         <v>148</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C148" s="22" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D148" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H148" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9971,16 +9975,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D149" s="22" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H149" s="10" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="150" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9988,16 +9992,16 @@
         <v>148</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C150" s="22" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D150" s="22" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H150" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="151" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10005,16 +10009,16 @@
         <v>148</v>
       </c>
       <c r="B151" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C151" s="22" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D151" s="22" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H151" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10022,16 +10026,16 @@
         <v>148</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C152" s="22" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D152" s="22" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H152" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="153" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10039,16 +10043,16 @@
         <v>148</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C153" s="22" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D153" s="22" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H153" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="154" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10065,12 +10069,12 @@
         <v>18</v>
       </c>
       <c r="B155" s="35" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C155" s="35"/>
       <c r="D155" s="35"/>
       <c r="H155" s="36" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I155" s="35"/>
     </row>
@@ -10079,16 +10083,16 @@
         <v>148</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C156" s="21" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I156" s="21" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10096,16 +10100,16 @@
         <v>148</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="158" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10113,16 +10117,16 @@
         <v>148</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="159" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10130,16 +10134,16 @@
         <v>148</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="160" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10147,16 +10151,16 @@
         <v>148</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="161" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10174,20 +10178,20 @@
         <v>126</v>
       </c>
       <c r="B162" s="38" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C162" s="39" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D162" s="40" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E162" s="28" t="s">
         <v>81</v>
       </c>
       <c r="F162" s="21"/>
       <c r="H162" s="28" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K162" s="28"/>
       <c r="L162" s="28"/>
@@ -10197,19 +10201,19 @@
         <v>253</v>
       </c>
       <c r="B163" s="41" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C163" s="39" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D163" s="40" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E163" s="41"/>
       <c r="F163" s="21"/>
       <c r="G163" s="41"/>
       <c r="H163" s="41" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I163" s="41"/>
       <c r="J163" s="41"/>
@@ -10254,12 +10258,12 @@
         <v>18</v>
       </c>
       <c r="B164" s="35" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C164" s="35"/>
       <c r="D164" s="35"/>
       <c r="H164" s="36" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I164" s="35"/>
     </row>
@@ -10268,16 +10272,16 @@
         <v>148</v>
       </c>
       <c r="B165" s="37" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C165" s="21" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D165" s="21" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I165" s="37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="166" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10285,16 +10289,16 @@
         <v>148</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D166" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="167" s="43" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10302,16 +10306,16 @@
         <v>148</v>
       </c>
       <c r="B167" s="28" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C167" s="28" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="H167" s="28" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="168" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10319,16 +10323,16 @@
         <v>148</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C168" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D168" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H168" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10336,16 +10340,16 @@
         <v>148</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C169" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D169" s="10" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="H169" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="170" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10363,12 +10367,12 @@
         <v>18</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C171" s="35"/>
       <c r="D171" s="35"/>
       <c r="H171" s="36" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="I171" s="35"/>
     </row>
@@ -10377,16 +10381,16 @@
         <v>148</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="173" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10394,16 +10398,16 @@
         <v>148</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="H173" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="174" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10411,16 +10415,16 @@
         <v>148</v>
       </c>
       <c r="B174" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C174" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D174" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="H174" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="175" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10428,16 +10432,16 @@
         <v>148</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H175" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10534,7 +10538,7 @@
   </sheetPr>
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -10549,7 +10553,7 @@
   <sheetData>
     <row r="1" s="47" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>1</v>
@@ -10558,7 +10562,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -10583,16 +10587,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B2" s="48" t="s">
         <v>81</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -10617,16 +10621,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -10677,30 +10681,30 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10711,30 +10715,30 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10745,128 +10749,128 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B19" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>608</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>609</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10875,184 +10879,184 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
+        <v>611</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>609</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>610</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>608</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>609</v>
-      </c>
       <c r="D25" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11060,46 +11064,46 @@
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="44" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="E39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="44" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E40" s="57"/>
     </row>
@@ -11110,450 +11114,450 @@
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="44" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -11620,22 +11624,22 @@
   <sheetData>
     <row r="1" s="62" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
@@ -11660,20 +11664,20 @@
     </row>
     <row r="2" s="69" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C2" s="65" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-01-19  10-40</v>
+        <v>2023-03-24  17-26</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="68"/>

--- a/forms/app/prenatal_followup.xlsx
+++ b/forms/app/prenatal_followup.xlsx
@@ -13,7 +13,7 @@
     <sheet name="settings" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">survey!$A$1:$R$122</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">survey!$A$1:$R$129</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1261" uniqueCount="715">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -156,6 +156,9 @@
     <t xml:space="preserve">contact</t>
   </si>
   <si>
+    <t xml:space="preserve">NO_LABEL</t>
+  </si>
+  <si>
     <t xml:space="preserve">db:person</t>
   </si>
   <si>
@@ -342,9 +345,6 @@
     <t xml:space="preserve">display_delivery_date</t>
   </si>
   <si>
-    <t xml:space="preserve">NO_LABEL</t>
-  </si>
-  <si>
     <t xml:space="preserve">format-date-time(${delivery_date}, "%Y-%n-%e")</t>
   </si>
   <si>
@@ -396,6 +396,12 @@
     <t xml:space="preserve">format-date-time(date-time(decimal-date-time(${s_anc_next_anc})+7),"%b %e, %Y")</t>
   </si>
   <si>
+    <t xml:space="preserve">close_out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if(${s_task_to_perform} = 'close_out', 'true', 'false')</t>
+  </si>
+  <si>
     <t xml:space="preserve">reschedule_task</t>
   </si>
   <si>
@@ -417,7 +423,7 @@
     <t xml:space="preserve">La femme est-elle disponible?</t>
   </si>
   <si>
-    <t xml:space="preserve">horizontal</t>
+    <t xml:space="preserve">columns</t>
   </si>
   <si>
     <t xml:space="preserve">date</t>
@@ -1777,9 +1783,6 @@
     <t xml:space="preserve">Suivi</t>
   </si>
   <si>
-    <t xml:space="preserve">close_out</t>
-  </si>
-  <si>
     <t xml:space="preserve">Close out</t>
   </si>
   <si>
@@ -2198,10 +2201,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -2812,7 +2814,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3015,21 +3017,19 @@
   </sheetPr>
   <dimension ref="A1:IZ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E38" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H57" activeCellId="0" sqref="H57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C182" activeCellId="0" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="64.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="40.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="27.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="94.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="51.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="32.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="33.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="13.66"/>
@@ -4504,36 +4504,40 @@
       <c r="B9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
     <row r="10" s="9" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="N10" s="7"/>
       <c r="P10" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4544,10 +4548,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -4813,13 +4817,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -5087,13 +5091,13 @@
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -5359,13 +5363,13 @@
         <v>23</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -5628,7 +5632,7 @@
     </row>
     <row r="15" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -5638,7 +5642,7 @@
     </row>
     <row r="16" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -5648,20 +5652,20 @@
     </row>
     <row r="17" s="9" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M17" s="9" t="n">
         <v>0</v>
@@ -5670,20 +5674,20 @@
     </row>
     <row r="18" s="9" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18" s="7"/>
       <c r="L18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M18" s="9" t="n">
         <v>0</v>
@@ -5692,16 +5696,16 @@
     </row>
     <row r="19" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -5711,7 +5715,7 @@
       <c r="J19" s="9"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M19" s="9"/>
       <c r="N19" s="7"/>
@@ -5964,10 +5968,10 @@
     </row>
     <row r="20" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -5979,7 +5983,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N20" s="1"/>
       <c r="P20" s="1"/>
@@ -5988,10 +5992,10 @@
     </row>
     <row r="21" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -6003,7 +6007,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
@@ -6012,32 +6016,32 @@
     </row>
     <row r="22" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="7"/>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M22" s="9"/>
       <c r="N22" s="7"/>
@@ -6290,16 +6294,16 @@
     </row>
     <row r="23" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
@@ -6309,7 +6313,7 @@
       <c r="J23" s="9"/>
       <c r="K23" s="7"/>
       <c r="L23" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M23" s="9"/>
       <c r="N23" s="7"/>
@@ -6562,16 +6566,16 @@
     </row>
     <row r="24" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6581,7 +6585,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
@@ -6590,16 +6594,16 @@
     </row>
     <row r="25" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6609,7 +6613,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N25" s="1"/>
       <c r="P25" s="1"/>
@@ -6618,16 +6622,16 @@
     </row>
     <row r="26" s="10" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6637,7 +6641,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N26" s="1"/>
       <c r="P26" s="1"/>
@@ -6646,19 +6650,19 @@
     </row>
     <row r="27" s="10" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -6667,7 +6671,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N27" s="1"/>
       <c r="P27" s="1"/>
@@ -6676,16 +6680,16 @@
     </row>
     <row r="28" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>41</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -6695,7 +6699,7 @@
       <c r="J28" s="9"/>
       <c r="K28" s="7"/>
       <c r="L28" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="7"/>
@@ -6948,16 +6952,16 @@
     </row>
     <row r="29" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -7220,16 +7224,16 @@
     </row>
     <row r="30" s="10" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>107</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -7492,16 +7496,16 @@
     </row>
     <row r="31" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>110</v>
@@ -7509,16 +7513,16 @@
     </row>
     <row r="32" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>111</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>112</v>
@@ -7526,16 +7530,16 @@
     </row>
     <row r="33" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>113</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L33" s="7" t="s">
         <v>114</v>
@@ -7543,16 +7547,16 @@
     </row>
     <row r="34" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>116</v>
@@ -7560,16 +7564,16 @@
     </row>
     <row r="35" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>117</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>118</v>
@@ -7577,16 +7581,16 @@
     </row>
     <row r="36" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L36" s="7" t="s">
         <v>120</v>
@@ -7594,2869 +7598,2802 @@
     </row>
     <row r="37" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="L37" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="18" t="s">
+    <row r="38" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I42" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-    </row>
+    </row>
+    <row r="39" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" s="7" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="45" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="18" t="s">
         <v>18</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="H45" s="20" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="I45" s="18" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="48" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+    </row>
+    <row r="49" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="D49" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="I49" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="51" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+    </row>
+    <row r="52" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C52" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D52" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="H52" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="I52" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="B53" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="47" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-    </row>
-    <row r="48" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="18" t="s">
+      <c r="C53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" s="6" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+    </row>
+    <row r="55" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="D48" s="18" t="s">
+      <c r="B55" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="H48" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="I48" s="18" t="s">
+      <c r="D55" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="H55" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="I55" s="18" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q49" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D51" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D52" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D53" s="22" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="D54" s="22" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F54" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D55" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="12" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>180</v>
+        <v>158</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F56" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q56" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>183</v>
+        <v>163</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>189</v>
+        <v>169</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="C60" s="23" t="s">
-        <v>192</v>
+        <v>172</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C61" s="12" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="C62" s="12" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>201</v>
+        <v>181</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>204</v>
+        <v>184</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>185</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="C65" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>210</v>
+        <v>190</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="D66" s="22" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>212</v>
+        <v>193</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>194</v>
       </c>
       <c r="D67" s="22" t="s">
-        <v>213</v>
+        <v>195</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="12" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B68" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D68" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="D74" s="22" t="s">
         <v>215</v>
       </c>
-      <c r="D68" s="22" t="s">
+    </row>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B75" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="C75" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D75" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="H69" s="4"/>
-      <c r="I69" s="4"/>
-    </row>
-    <row r="70" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="s">
+      <c r="G75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+    </row>
+    <row r="77" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D70" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="H70" s="4" t="s">
+      <c r="C77" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="I70" s="4" t="s">
+      <c r="D77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I77" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="D71" s="25" t="s">
+    <row r="78" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="E71" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="C78" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="E78" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="F78" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H71" s="25" t="s">
-        <v>225</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B72" s="24" t="s">
-        <v>226</v>
-      </c>
-      <c r="C72" s="24" t="s">
+      <c r="G78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H78" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="D72" s="25" t="s">
+      <c r="I78" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A79" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="E72" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F72" s="1" t="s">
+      <c r="C79" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="D79" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E79" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H72" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="B73" s="24" t="s">
+      <c r="G79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H79" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="I79" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J79" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D73" s="25" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B80" s="24" t="s">
         <v>233</v>
       </c>
-      <c r="E73" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="C80" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H73" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="C74" s="24" t="s">
+      <c r="G80" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H80" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="D74" s="25" t="s">
+      <c r="I80" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B81" s="24" t="s">
         <v>237</v>
       </c>
-      <c r="E74" s="26"/>
-      <c r="H74" s="25" t="s">
+      <c r="C81" s="24" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="75" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B75" s="24" t="s">
+      <c r="D81" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="E81" s="26"/>
+      <c r="H81" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="28" t="s">
+    </row>
+    <row r="82" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B82" s="24" t="s">
         <v>241</v>
       </c>
-      <c r="E75" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="C82" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="E82" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H75" s="25" t="s">
-        <v>242</v>
-      </c>
-      <c r="J75" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="76" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B76" s="24" t="s">
+      <c r="G82" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H82" s="25" t="s">
         <v>244</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="J82" s="29" t="s">
         <v>245</v>
       </c>
-      <c r="D76" s="25" t="s">
+    </row>
+    <row r="83" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" s="24" t="s">
         <v>246</v>
       </c>
-      <c r="E76" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F76" s="1" t="s">
+      <c r="C83" s="24" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E83" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="F83" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H76" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="B77" s="24" t="s">
+      <c r="G83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H83" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="I83" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="D77" s="25" t="s">
+      <c r="B84" s="24" t="s">
         <v>251</v>
       </c>
-      <c r="E77" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="1" t="s">
+      <c r="C84" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="E84" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H77" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="B78" s="24" t="s">
+      <c r="G84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H84" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="I84" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="D78" s="25" t="s">
+      <c r="B85" s="24" t="s">
         <v>256</v>
       </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="1" t="s">
+      <c r="C85" s="24" t="s">
+        <v>257</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="E85" s="26"/>
+      <c r="F85" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H85" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="86" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A86" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B86" s="24" t="s">
+        <v>260</v>
+      </c>
+      <c r="C86" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="E86" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H78" s="25" t="s">
-        <v>257</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="79" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="24" t="s">
-        <v>131</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>258</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="E79" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="G86" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H86" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="J86" s="29" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="24" t="s">
+        <v>264</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>265</v>
+      </c>
+      <c r="C87" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="28" t="s">
+        <v>267</v>
+      </c>
+      <c r="E87" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H79" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="J79" s="29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="B80" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="C80" s="24" t="s">
+      <c r="G87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H87" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="J87" s="29" t="s">
+        <v>269</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="88" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+    </row>
+    <row r="89" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A89" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" s="6"/>
+    </row>
+    <row r="90" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A90" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B90" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>277</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H90" s="25"/>
+      <c r="I90" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A91" s="31" t="s">
         <v>264</v>
       </c>
-      <c r="D80" s="28" t="s">
-        <v>265</v>
-      </c>
-      <c r="E80" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F80" s="1" t="s">
+      <c r="B91" s="31" t="s">
+        <v>278</v>
+      </c>
+      <c r="C91" s="31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D91" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="E91" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="F91" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H80" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="J80" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="N80" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="81" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="H81" s="4"/>
-      <c r="I81" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J82" s="6"/>
-    </row>
-    <row r="83" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B83" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>274</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="F83" s="1" t="s">
+      <c r="G91" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H91" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="I91" s="31"/>
+      <c r="J91" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="N91" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A92" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C92" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D92" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H83" s="25"/>
-      <c r="I83" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="31" t="s">
-        <v>262</v>
-      </c>
-      <c r="B84" s="31" t="s">
-        <v>276</v>
-      </c>
-      <c r="C84" s="31" t="s">
-        <v>277</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>278</v>
-      </c>
-      <c r="E84" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F84" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H84" s="25" t="s">
-        <v>279</v>
-      </c>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31" t="s">
-        <v>280</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="N84" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B85" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D85" s="31" t="s">
-        <v>285</v>
-      </c>
-      <c r="E85" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B86" s="31" t="s">
-        <v>286</v>
-      </c>
-      <c r="C86" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="D86" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E86" s="26"/>
-      <c r="F86" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H86" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="I86" s="31"/>
-    </row>
-    <row r="87" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>290</v>
-      </c>
-      <c r="C87" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>292</v>
-      </c>
-      <c r="E87" s="26"/>
-      <c r="H87" s="25" t="s">
-        <v>293</v>
-      </c>
-      <c r="I87" s="31"/>
-    </row>
-    <row r="88" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B88" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="C88" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="D88" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="E88" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H88" s="31"/>
-      <c r="I88" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B89" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="C89" s="31" t="s">
-        <v>287</v>
-      </c>
-      <c r="D89" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="E89" s="26"/>
-      <c r="F89" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H89" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="I89" s="31"/>
-    </row>
-    <row r="90" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B90" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="C90" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="D90" s="31" t="s">
-        <v>301</v>
-      </c>
-      <c r="E90" s="26"/>
-      <c r="H90" s="31" t="s">
-        <v>302</v>
-      </c>
-      <c r="I90" s="31"/>
-    </row>
-    <row r="91" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="H91" s="4"/>
-      <c r="I91" s="4"/>
-    </row>
-    <row r="92" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>303</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J92" s="6"/>
+      <c r="G92" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="12" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="B93" s="31" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C93" s="31" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="D93" s="31" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E93" s="26"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="F93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H93" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="I93" s="31"/>
     </row>
     <row r="94" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="31" t="s">
-        <v>126</v>
+      <c r="A94" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="B94" s="31" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="C94" s="31" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D94" s="31" t="s">
-        <v>311</v>
-      </c>
-      <c r="E94" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F94" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E94" s="26"/>
+      <c r="H94" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B95" s="31" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="D95" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="E95" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="F95" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="H94" s="31" t="s">
-        <v>312</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="B95" s="31" t="s">
-        <v>314</v>
-      </c>
-      <c r="C95" s="31" t="s">
-        <v>315</v>
-      </c>
-      <c r="D95" s="31" t="s">
-        <v>316</v>
-      </c>
-      <c r="E95" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="G95" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H95" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="I95" s="31"/>
+        <v>84</v>
+      </c>
+      <c r="H95" s="31"/>
+      <c r="I95" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="12" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="B96" s="31" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="C96" s="31" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="D96" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="E96" s="26" t="s">
-        <v>81</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E96" s="26"/>
       <c r="F96" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H96" s="31" t="s">
-        <v>320</v>
+        <v>300</v>
       </c>
       <c r="I96" s="31"/>
     </row>
-    <row r="97" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
+    <row r="97" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B97" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="C97" s="31" t="s">
+        <v>302</v>
+      </c>
+      <c r="D97" s="31" t="s">
+        <v>303</v>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="H97" s="31" t="s">
+        <v>304</v>
+      </c>
+      <c r="I97" s="31"/>
     </row>
     <row r="98" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+    </row>
+    <row r="99" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A99" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="H98" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="I98" s="4" t="s">
+      <c r="B99" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I99" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B99" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="C99" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="D99" s="25" t="s">
-        <v>326</v>
-      </c>
-      <c r="E99" s="26"/>
-      <c r="F99" s="32"/>
-      <c r="G99" s="32"/>
-      <c r="H99" s="25"/>
-      <c r="I99" s="31"/>
-    </row>
-    <row r="100" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="J99" s="6"/>
+    </row>
+    <row r="100" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C100" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="D100" s="25" t="s">
-        <v>329</v>
+        <v>128</v>
+      </c>
+      <c r="B100" s="31" t="s">
+        <v>308</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>309</v>
+      </c>
+      <c r="D100" s="31" t="s">
+        <v>310</v>
       </c>
       <c r="E100" s="26"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="25"/>
+      <c r="H100" s="31"/>
       <c r="I100" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B101" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="C101" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="D101" s="25" t="s">
-        <v>333</v>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="25" t="s">
-        <v>334</v>
+      <c r="A101" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="E101" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H101" s="31" t="s">
+        <v>314</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="C102" s="24" t="s">
-        <v>336</v>
-      </c>
-      <c r="D102" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="H102" s="25" t="s">
-        <v>338</v>
-      </c>
-      <c r="I102" s="25"/>
+        <v>315</v>
+      </c>
+      <c r="B102" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="C102" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="D102" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="E102" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H102" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I102" s="31"/>
     </row>
     <row r="103" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B103" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E103" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+    </row>
+    <row r="105" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A105" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="106" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A106" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B106" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>327</v>
+      </c>
+      <c r="D106" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" s="30" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A107" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="D107" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" s="26"/>
+      <c r="F107" s="1"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A108" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="D108" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A109" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="C103" s="24" t="s">
+      <c r="E109" s="26"/>
+      <c r="H109" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="D103" s="25" t="s">
+      <c r="I109" s="25"/>
+    </row>
+    <row r="110" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A110" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>341</v>
       </c>
-      <c r="E103" s="26"/>
-      <c r="H103" s="25" t="s">
+      <c r="C110" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="I103" s="25"/>
-    </row>
-    <row r="104" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="24" t="s">
+      <c r="D110" s="25" t="s">
         <v>343</v>
       </c>
-      <c r="B104" s="24" t="s">
+      <c r="E110" s="26"/>
+      <c r="H110" s="25" t="s">
         <v>344</v>
       </c>
-      <c r="C104" s="24" t="s">
+      <c r="I110" s="25"/>
+    </row>
+    <row r="111" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A111" s="24" t="s">
         <v>345</v>
       </c>
-      <c r="D104" s="25" t="s">
+      <c r="B111" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="E104" s="26"/>
-      <c r="H104" s="25" t="s">
-        <v>334</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B105" s="24" t="s">
+      <c r="C111" s="24" t="s">
         <v>347</v>
       </c>
-      <c r="C105" s="24" t="s">
+      <c r="D111" s="25" t="s">
         <v>348</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="E111" s="26"/>
+      <c r="H111" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="112" s="29" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A112" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="E105" s="26"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="1"/>
-      <c r="I105" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="B106" s="24" t="s">
+      <c r="C112" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="D112" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="E112" s="26"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="I112" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A113" s="24" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>352</v>
       </c>
-      <c r="E106" s="26"/>
-      <c r="H106" s="25" t="s">
+      <c r="C113" s="24" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B107" s="24" t="s">
+      <c r="D113" s="28" t="s">
         <v>354</v>
       </c>
-      <c r="C107" s="24" t="s">
+      <c r="E113" s="26"/>
+      <c r="H113" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="D107" s="28" t="s">
+    </row>
+    <row r="114" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A114" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="E107" s="26"/>
-    </row>
-    <row r="108" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B108" s="31" t="s">
+      <c r="C114" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="C108" s="31" t="s">
+      <c r="D114" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="D108" s="31" t="s">
+      <c r="E114" s="26"/>
+    </row>
+    <row r="115" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A115" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B115" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="H108" s="31" t="s">
+      <c r="C115" s="31" t="s">
         <v>360</v>
       </c>
-      <c r="I108" s="31"/>
-    </row>
-    <row r="109" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B109" s="31" t="s">
+      <c r="D115" s="31" t="s">
         <v>361</v>
       </c>
-      <c r="C109" s="31" t="s">
+      <c r="H115" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="D109" s="31" t="s">
-        <v>363</v>
-      </c>
-      <c r="E109" s="26"/>
-      <c r="H109" s="31" t="s">
-        <v>364</v>
-      </c>
-      <c r="I109" s="31"/>
-    </row>
-    <row r="110" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B110" s="31" t="s">
-        <v>366</v>
-      </c>
-      <c r="C110" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="D110" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="E110" s="26"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-    </row>
-    <row r="111" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B111" s="31" t="s">
-        <v>369</v>
-      </c>
-      <c r="C111" s="31" t="s">
-        <v>319</v>
-      </c>
-      <c r="D111" s="31" t="s">
-        <v>256</v>
-      </c>
-      <c r="E111" s="26"/>
-      <c r="F111" s="34"/>
-      <c r="G111" s="34"/>
-      <c r="H111" s="31" t="s">
-        <v>370</v>
-      </c>
-      <c r="I111" s="31"/>
-    </row>
-    <row r="112" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="B112" s="31" t="s">
-        <v>371</v>
-      </c>
-      <c r="C112" s="31" t="s">
-        <v>372</v>
-      </c>
-      <c r="D112" s="31" t="s">
-        <v>373</v>
-      </c>
-      <c r="E112" s="26"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31" t="s">
-        <v>374</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="31" t="s">
-        <v>253</v>
-      </c>
-      <c r="B113" s="31" t="s">
-        <v>376</v>
-      </c>
-      <c r="C113" s="31" t="s">
-        <v>377</v>
-      </c>
-      <c r="D113" s="31" t="s">
-        <v>378</v>
-      </c>
-      <c r="E113" s="26"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="B114" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C114" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="D114" s="31" t="s">
-        <v>383</v>
-      </c>
-      <c r="E114" s="26"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-    </row>
-    <row r="115" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="31" t="s">
-        <v>384</v>
-      </c>
-      <c r="B115" s="31" t="s">
-        <v>385</v>
-      </c>
-      <c r="C115" s="31" t="s">
-        <v>386</v>
-      </c>
-      <c r="D115" s="31" t="s">
-        <v>387</v>
-      </c>
-      <c r="E115" s="26"/>
-      <c r="H115" s="31"/>
       <c r="I115" s="31"/>
     </row>
     <row r="116" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="31" t="s">
-        <v>388</v>
+        <v>150</v>
       </c>
       <c r="B116" s="31" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="C116" s="31" t="s">
-        <v>390</v>
+        <v>364</v>
       </c>
       <c r="D116" s="31" t="s">
-        <v>391</v>
+        <v>365</v>
       </c>
       <c r="E116" s="26"/>
-      <c r="H116" s="31"/>
+      <c r="H116" s="31" t="s">
+        <v>366</v>
+      </c>
       <c r="I116" s="31"/>
     </row>
-    <row r="117" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="31" t="s">
-        <v>148</v>
+    <row r="117" customFormat="false" ht="32.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A117" s="12" t="s">
+        <v>367</v>
       </c>
       <c r="B117" s="31" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="C117" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="D117" s="33" t="s">
-        <v>394</v>
+        <v>369</v>
+      </c>
+      <c r="D117" s="31" t="s">
+        <v>370</v>
       </c>
       <c r="E117" s="26"/>
       <c r="H117" s="31"/>
       <c r="I117" s="31"/>
     </row>
-    <row r="118" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
-      <c r="D118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-    </row>
-    <row r="119" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>396</v>
-      </c>
-      <c r="D119" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="H119" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="I119" s="18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F120" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H121" s="1" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
-      <c r="D122" s="4"/>
-      <c r="H122" s="4"/>
-      <c r="I122" s="4"/>
-    </row>
-    <row r="123" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="31"/>
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
+    <row r="118" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A118" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="31" t="s">
+        <v>371</v>
+      </c>
+      <c r="C118" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="D118" s="31" t="s">
+        <v>258</v>
+      </c>
+      <c r="E118" s="26"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="31" t="s">
+        <v>372</v>
+      </c>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A119" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B119" s="31" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="31" t="s">
+        <v>374</v>
+      </c>
+      <c r="D119" s="31" t="s">
+        <v>375</v>
+      </c>
+      <c r="E119" s="26"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31" t="s">
+        <v>376</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A120" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B120" s="31" t="s">
+        <v>378</v>
+      </c>
+      <c r="C120" s="31" t="s">
+        <v>379</v>
+      </c>
+      <c r="D120" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="E120" s="26"/>
+      <c r="H120" s="31"/>
+      <c r="I120" s="31" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A121" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B121" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="C121" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="D121" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A122" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B122" s="31" t="s">
+        <v>387</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>388</v>
+      </c>
+      <c r="D122" s="31" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" s="26"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A123" s="31" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" s="31" t="s">
+        <v>391</v>
+      </c>
+      <c r="C123" s="31" t="s">
+        <v>392</v>
+      </c>
+      <c r="D123" s="31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E123" s="26"/>
       <c r="H123" s="31"/>
       <c r="I123" s="31"/>
     </row>
-    <row r="124" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="18" t="s">
+    <row r="124" customFormat="false" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A124" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B124" s="31" t="s">
+        <v>394</v>
+      </c>
+      <c r="C124" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="D124" s="33" t="s">
+        <v>396</v>
+      </c>
+      <c r="E124" s="26"/>
+      <c r="H124" s="31"/>
+      <c r="I124" s="31"/>
+    </row>
+    <row r="125" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A125" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+    </row>
+    <row r="126" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A126" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B126" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="H126" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="I126" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C128" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H128" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D124" s="18" t="s">
+    </row>
+    <row r="129" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A129" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+    </row>
+    <row r="130" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A130" s="31"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="31"/>
+      <c r="D130" s="31"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" s="20" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A131" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B131" s="18" t="s">
         <v>407</v>
       </c>
-      <c r="I124" s="18" t="s">
+      <c r="C131" s="18" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="125" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="B125" s="31" t="s">
+      <c r="D131" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="C125" s="31" t="s">
+      <c r="I131" s="18" t="s">
         <v>410</v>
       </c>
-      <c r="D125" s="31" t="s">
+    </row>
+    <row r="132" s="32" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A132" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="B132" s="31" t="s">
         <v>411</v>
       </c>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31" t="s">
+      <c r="C132" s="31" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="126" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B126" s="10" t="s">
+      <c r="D132" s="31" t="s">
         <v>413</v>
       </c>
-      <c r="C126" s="22" t="s">
+      <c r="H132" s="31"/>
+      <c r="I132" s="31" t="s">
         <v>414</v>
       </c>
-      <c r="D126" s="12" t="s">
+    </row>
+    <row r="133" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A133" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B133" s="10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="127" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="35" t="s">
+      <c r="C133" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="134" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A134" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B127" s="35" t="s">
-        <v>416</v>
-      </c>
-      <c r="C127" s="35"/>
-      <c r="D127" s="35"/>
-      <c r="I127" s="35"/>
-    </row>
-    <row r="128" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B128" s="37" t="s">
-        <v>417</v>
-      </c>
-      <c r="C128" s="21" t="s">
+      <c r="B134" s="35" t="s">
         <v>418</v>
       </c>
-      <c r="D128" s="21" t="s">
+      <c r="C134" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="I134" s="35"/>
+    </row>
+    <row r="135" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A135" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="37" t="s">
         <v>419</v>
       </c>
-      <c r="I128" s="37" t="s">
+      <c r="C135" s="21" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="129" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B129" s="10" t="s">
+      <c r="D135" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="C129" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="H129" s="10" t="s">
+      <c r="I135" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="I129" s="10" t="s">
+    </row>
+    <row r="136" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A136" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B136" s="10" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B130" s="12" t="s">
+      <c r="C136" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D136" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H136" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C130" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D130" s="22" t="s">
-        <v>163</v>
-      </c>
-      <c r="H130" s="10" t="s">
+      <c r="I136" s="10" t="s">
         <v>425</v>
-      </c>
-      <c r="I130" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B131" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="D131" s="22" t="s">
-        <v>166</v>
-      </c>
-      <c r="H131" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="I131" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B132" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D132" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="H132" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="I132" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B133" s="12" t="s">
-        <v>432</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D133" s="22" t="s">
-        <v>433</v>
-      </c>
-      <c r="H133" s="10" t="s">
-        <v>434</v>
-      </c>
-      <c r="I133" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B134" s="12" t="s">
-        <v>435</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="D134" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="H134" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B135" s="12" t="s">
-        <v>439</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>440</v>
-      </c>
-      <c r="D135" s="22" t="s">
-        <v>441</v>
-      </c>
-      <c r="H135" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="I135" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="B136" s="12" t="s">
-        <v>443</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D136" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="H136" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="I136" s="10" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>445</v>
-      </c>
-      <c r="C137" s="23" t="s">
-        <v>446</v>
+        <v>426</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="D137" s="22" t="s">
-        <v>447</v>
+        <v>165</v>
       </c>
       <c r="H137" s="10" t="s">
-        <v>448</v>
+        <v>427</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D138" s="22" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="H138" s="10" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>189</v>
+        <v>431</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="D139" s="22" t="s">
-        <v>190</v>
+        <v>432</v>
       </c>
       <c r="H139" s="10" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C140" s="23" t="s">
-        <v>454</v>
+        <v>434</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>173</v>
       </c>
       <c r="D140" s="22" t="s">
-        <v>193</v>
+        <v>435</v>
       </c>
       <c r="H140" s="10" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>195</v>
+        <v>438</v>
       </c>
       <c r="D141" s="22" t="s">
-        <v>196</v>
+        <v>439</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="D142" s="22" t="s">
-        <v>199</v>
+        <v>443</v>
       </c>
       <c r="H142" s="10" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="I142" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>201</v>
+        <v>445</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="D143" s="22" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="H143" s="10" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="I143" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="C144" s="12" t="s">
-        <v>464</v>
+        <v>447</v>
+      </c>
+      <c r="C144" s="23" t="s">
+        <v>448</v>
       </c>
       <c r="D144" s="22" t="s">
-        <v>205</v>
+        <v>449</v>
       </c>
       <c r="H144" s="10" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="I144" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="H145" s="10" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="I145" s="10" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="I146" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A147" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="23" t="s">
+        <v>456</v>
+      </c>
+      <c r="D147" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="H147" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="I147" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A148" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D148" s="22" t="s">
+        <v>198</v>
+      </c>
+      <c r="H148" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="I148" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A149" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D149" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A150" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D150" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="I150" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A151" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="D151" s="22" t="s">
+        <v>207</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A152" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B152" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C152" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D152" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="D146" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="H146" s="10" t="s">
+      <c r="H152" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="I146" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B147" s="10" t="s">
+      <c r="I152" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B153" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="C153" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D153" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="H153" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="D147" s="10" t="s">
+      <c r="I153" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B154" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="H147" s="10" t="s">
+      <c r="C154" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="I147" s="10" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="148" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A148" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148" s="10" t="s">
+      <c r="D154" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="C148" s="22" t="s">
+      <c r="H154" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="D148" s="22" t="s">
+      <c r="I154" s="10" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="155" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B155" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="H148" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="149" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B149" s="10" t="s">
+      <c r="C155" s="22" t="s">
         <v>477</v>
       </c>
-      <c r="C149" s="22" t="s">
+      <c r="D155" s="22" t="s">
         <v>478</v>
       </c>
-      <c r="D149" s="22" t="s">
+      <c r="H155" s="10" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="156" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B156" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H149" s="10" t="s">
+      <c r="C156" s="22" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="150" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B150" s="10" t="s">
+      <c r="D156" s="22" t="s">
         <v>481</v>
       </c>
-      <c r="C150" s="22" t="s">
+      <c r="H156" s="10" t="s">
         <v>482</v>
-      </c>
-      <c r="D150" s="22" t="s">
-        <v>483</v>
-      </c>
-      <c r="H150" s="10" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="151" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B151" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C151" s="22" t="s">
-        <v>486</v>
-      </c>
-      <c r="D151" s="22" t="s">
-        <v>487</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="152" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B152" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C152" s="22" t="s">
-        <v>490</v>
-      </c>
-      <c r="D152" s="22" t="s">
-        <v>491</v>
-      </c>
-      <c r="H152" s="10" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="153" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B153" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C153" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="D153" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="H153" s="10" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="154" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="B154" s="35"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="35"/>
-      <c r="I154" s="35"/>
-    </row>
-    <row r="155" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="B155" s="35" t="s">
-        <v>497</v>
-      </c>
-      <c r="C155" s="35"/>
-      <c r="D155" s="35"/>
-      <c r="H155" s="36" t="s">
-        <v>498</v>
-      </c>
-      <c r="I155" s="35"/>
-    </row>
-    <row r="156" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>499</v>
-      </c>
-      <c r="C156" s="21" t="s">
-        <v>500</v>
-      </c>
-      <c r="D156" s="21" t="s">
-        <v>501</v>
-      </c>
-      <c r="I156" s="21" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="157" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>503</v>
-      </c>
-      <c r="D157" s="10" t="s">
-        <v>504</v>
+        <v>483</v>
+      </c>
+      <c r="C157" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D157" s="22" t="s">
+        <v>485</v>
       </c>
       <c r="H157" s="10" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="C158" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="D158" s="10" t="s">
-        <v>507</v>
+        <v>487</v>
+      </c>
+      <c r="C158" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="D158" s="22" t="s">
+        <v>489</v>
       </c>
       <c r="H158" s="10" t="s">
-        <v>508</v>
+        <v>490</v>
       </c>
     </row>
     <row r="159" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>510</v>
+        <v>492</v>
       </c>
       <c r="D159" s="22" t="s">
-        <v>511</v>
+        <v>493</v>
       </c>
       <c r="H159" s="10" t="s">
-        <v>512</v>
+        <v>494</v>
       </c>
     </row>
     <row r="160" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>513</v>
+        <v>495</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>514</v>
+        <v>496</v>
       </c>
       <c r="D160" s="22" t="s">
-        <v>515</v>
+        <v>497</v>
       </c>
       <c r="H160" s="10" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="161" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
-      <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-    </row>
-    <row r="162" s="38" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>517</v>
-      </c>
-      <c r="C162" s="39" t="s">
-        <v>518</v>
-      </c>
-      <c r="D162" s="40" t="s">
-        <v>519</v>
-      </c>
-      <c r="E162" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="F162" s="21"/>
-      <c r="H162" s="28" t="s">
-        <v>520</v>
-      </c>
-      <c r="K162" s="28"/>
-      <c r="L162" s="28"/>
-    </row>
-    <row r="163" s="38" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="28" t="s">
-        <v>253</v>
-      </c>
-      <c r="B163" s="41" t="s">
-        <v>521</v>
-      </c>
-      <c r="C163" s="39" t="s">
-        <v>522</v>
-      </c>
-      <c r="D163" s="40" t="s">
-        <v>523</v>
-      </c>
-      <c r="E163" s="41"/>
-      <c r="F163" s="21"/>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41" t="s">
-        <v>524</v>
-      </c>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-      <c r="K163" s="41"/>
-      <c r="L163" s="41"/>
-      <c r="M163" s="41"/>
-      <c r="N163" s="41"/>
-      <c r="O163" s="41"/>
-      <c r="P163" s="41"/>
-      <c r="Q163" s="41"/>
-      <c r="R163" s="41"/>
-      <c r="S163" s="41"/>
-      <c r="T163" s="41"/>
-      <c r="U163" s="41"/>
-      <c r="V163" s="41"/>
-      <c r="W163" s="41"/>
-      <c r="X163" s="41"/>
-      <c r="Y163" s="41"/>
-      <c r="Z163" s="41"/>
-      <c r="AA163" s="41"/>
-      <c r="AB163" s="41"/>
-      <c r="AC163" s="41"/>
-      <c r="AD163" s="41"/>
-      <c r="AE163" s="41"/>
-      <c r="AF163" s="41"/>
-      <c r="AG163" s="41"/>
-      <c r="AH163" s="41"/>
-      <c r="AI163" s="41"/>
-      <c r="AJ163" s="41"/>
-      <c r="AK163" s="41"/>
-      <c r="AL163" s="41"/>
-      <c r="AM163" s="41"/>
-      <c r="AN163" s="41"/>
-      <c r="AO163" s="41"/>
-      <c r="AP163" s="41"/>
-      <c r="AQ163" s="41"/>
-      <c r="AR163" s="41"/>
-      <c r="AS163" s="42"/>
-    </row>
-    <row r="164" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="35" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="161" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A161" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="B161" s="35"/>
+      <c r="C161" s="35"/>
+      <c r="D161" s="35"/>
+      <c r="I161" s="35"/>
+    </row>
+    <row r="162" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A162" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B164" s="35" t="s">
-        <v>525</v>
-      </c>
-      <c r="C164" s="35"/>
-      <c r="D164" s="35"/>
-      <c r="H164" s="36" t="s">
-        <v>520</v>
-      </c>
-      <c r="I164" s="35"/>
-    </row>
-    <row r="165" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B165" s="37" t="s">
-        <v>526</v>
-      </c>
-      <c r="C165" s="21" t="s">
-        <v>527</v>
-      </c>
-      <c r="D165" s="21" t="s">
-        <v>528</v>
-      </c>
-      <c r="I165" s="37" t="s">
-        <v>529</v>
+      <c r="B162" s="35" t="s">
+        <v>499</v>
+      </c>
+      <c r="C162" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D162" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H162" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="I162" s="35"/>
+    </row>
+    <row r="163" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A163" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B163" s="37" t="s">
+        <v>501</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>502</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>503</v>
+      </c>
+      <c r="I163" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="164" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A164" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D164" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="165" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A165" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="D165" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="166" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C166" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="D166" s="10" t="s">
-        <v>532</v>
+        <v>511</v>
+      </c>
+      <c r="C166" s="22" t="s">
+        <v>512</v>
+      </c>
+      <c r="D166" s="22" t="s">
+        <v>513</v>
       </c>
       <c r="H166" s="10" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="167" s="43" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B167" s="28" t="s">
-        <v>534</v>
-      </c>
-      <c r="C167" s="28" t="s">
-        <v>535</v>
-      </c>
-      <c r="D167" s="28" t="s">
-        <v>536</v>
-      </c>
-      <c r="H167" s="28" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="168" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B168" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C168" s="10" t="s">
-        <v>539</v>
-      </c>
-      <c r="D168" s="10" t="s">
-        <v>540</v>
-      </c>
-      <c r="H168" s="10" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="169" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B169" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="D169" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="H169" s="10" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="170" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
+        <v>514</v>
+      </c>
+    </row>
+    <row r="167" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A167" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>516</v>
+      </c>
+      <c r="D167" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="168" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A168" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+    </row>
+    <row r="169" s="38" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B169" s="38" t="s">
+        <v>519</v>
+      </c>
+      <c r="C169" s="39" t="s">
+        <v>520</v>
+      </c>
+      <c r="D169" s="40" t="s">
+        <v>521</v>
+      </c>
+      <c r="E169" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F169" s="21"/>
+      <c r="H169" s="28" t="s">
+        <v>522</v>
+      </c>
+      <c r="K169" s="28"/>
+      <c r="L169" s="28"/>
+    </row>
+    <row r="170" s="38" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>523</v>
+      </c>
+      <c r="C170" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="D170" s="40" t="s">
+        <v>525</v>
+      </c>
+      <c r="E170" s="41"/>
+      <c r="F170" s="21"/>
+      <c r="G170" s="41"/>
+      <c r="H170" s="41" t="s">
+        <v>526</v>
+      </c>
+      <c r="I170" s="41"/>
+      <c r="J170" s="41"/>
+      <c r="K170" s="41"/>
+      <c r="L170" s="41"/>
+      <c r="M170" s="41"/>
+      <c r="N170" s="41"/>
+      <c r="O170" s="41"/>
+      <c r="P170" s="41"/>
+      <c r="Q170" s="41"/>
+      <c r="R170" s="41"/>
+      <c r="S170" s="41"/>
+      <c r="T170" s="41"/>
+      <c r="U170" s="41"/>
+      <c r="V170" s="41"/>
+      <c r="W170" s="41"/>
+      <c r="X170" s="41"/>
+      <c r="Y170" s="41"/>
+      <c r="Z170" s="41"/>
+      <c r="AA170" s="41"/>
+      <c r="AB170" s="41"/>
+      <c r="AC170" s="41"/>
+      <c r="AD170" s="41"/>
+      <c r="AE170" s="41"/>
+      <c r="AF170" s="41"/>
+      <c r="AG170" s="41"/>
+      <c r="AH170" s="41"/>
+      <c r="AI170" s="41"/>
+      <c r="AJ170" s="41"/>
+      <c r="AK170" s="41"/>
+      <c r="AL170" s="41"/>
+      <c r="AM170" s="41"/>
+      <c r="AN170" s="41"/>
+      <c r="AO170" s="41"/>
+      <c r="AP170" s="41"/>
+      <c r="AQ170" s="41"/>
+      <c r="AR170" s="41"/>
+      <c r="AS170" s="42"/>
     </row>
     <row r="171" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="35" t="s">
         <v>18</v>
       </c>
       <c r="B171" s="35" t="s">
-        <v>546</v>
-      </c>
-      <c r="C171" s="35"/>
-      <c r="D171" s="35"/>
+        <v>527</v>
+      </c>
+      <c r="C171" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D171" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="H171" s="36" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="I171" s="35"/>
     </row>
     <row r="172" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="37" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B172" s="37" t="s">
-        <v>548</v>
+        <v>528</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="D172" s="21" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="I172" s="37" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B173" s="10" t="s">
-        <v>551</v>
+        <v>532</v>
       </c>
       <c r="C173" s="10" t="s">
-        <v>552</v>
+        <v>533</v>
       </c>
       <c r="D173" s="10" t="s">
-        <v>553</v>
+        <v>534</v>
       </c>
       <c r="H173" s="10" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="174" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B174" s="10" t="s">
-        <v>555</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>556</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="H174" s="10" t="s">
-        <v>558</v>
+        <v>535</v>
+      </c>
+    </row>
+    <row r="174" s="43" customFormat="true" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="B174" s="28" t="s">
+        <v>536</v>
+      </c>
+      <c r="C174" s="28" t="s">
+        <v>537</v>
+      </c>
+      <c r="D174" s="28" t="s">
+        <v>538</v>
+      </c>
+      <c r="H174" s="28" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="175" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>560</v>
+        <v>541</v>
       </c>
       <c r="D175" s="10" t="s">
-        <v>561</v>
+        <v>542</v>
       </c>
       <c r="H175" s="10" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="176" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="176" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A176" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="D176" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="H176" s="10" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="177" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -10464,13 +10401,112 @@
       <c r="H177" s="4"/>
       <c r="I177" s="4"/>
     </row>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" s="36" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A178" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B178" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="C178" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="D178" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="H178" s="36" t="s">
+        <v>549</v>
+      </c>
+      <c r="I178" s="35"/>
+    </row>
+    <row r="179" s="37" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A179" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="B179" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C179" s="21" t="s">
+        <v>551</v>
+      </c>
+      <c r="D179" s="21" t="s">
+        <v>552</v>
+      </c>
+      <c r="I179" s="37" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="180" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="D180" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="H180" s="10" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="181" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A181" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D181" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="H181" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="182" s="10" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A182" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="D182" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="H182" s="10" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="183" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="H183" s="4"/>
+      <c r="I183" s="4"/>
+    </row>
+    <row r="184" s="6" customFormat="true" ht="20.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A184" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="H184" s="4"/>
+      <c r="I184" s="4"/>
+    </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -10494,7 +10530,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:R122"/>
+  <autoFilter ref="A1:R129"/>
   <conditionalFormatting sqref="A24">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"begin group"</formula>
@@ -10538,8 +10574,8 @@
   </sheetPr>
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.171875" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10553,7 +10589,7 @@
   <sheetData>
     <row r="1" s="47" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="45" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B1" s="45" t="s">
         <v>1</v>
@@ -10562,7 +10598,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="46" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
@@ -10587,16 +10623,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="48" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="48" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D2" s="48" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
@@ -10621,16 +10657,16 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="48" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C3" s="48" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="49"/>
@@ -10681,30 +10717,30 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="50" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B5" s="51" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="C5" s="51" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="50" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B6" s="51" t="s">
-        <v>575</v>
+        <v>123</v>
       </c>
       <c r="C6" s="51" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D6" s="51" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10715,30 +10751,30 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="50" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B8" s="51" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C8" s="51" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="50" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B9" s="51" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10749,128 +10785,128 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B12" s="51" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C12" s="51" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B13" s="51" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B16" s="44" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B17" s="44" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B18" s="44" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="50" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B19" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="C19" s="44" t="s">
+        <v>611</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>609</v>
-      </c>
-      <c r="C19" s="44" t="s">
-        <v>610</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10879,184 +10915,184 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B21" s="44" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D21" s="53" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C22" s="44" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D22" s="44" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B23" s="44" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D23" s="44" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="44" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B24" s="44" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D24" s="44" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="44" t="s">
+        <v>612</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>610</v>
+      </c>
+      <c r="C25" s="44" t="s">
         <v>611</v>
       </c>
-      <c r="B25" s="44" t="s">
-        <v>609</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>610</v>
-      </c>
       <c r="D25" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B27" s="44" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C27" s="44" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D27" s="44" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="44" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B28" s="44" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C28" s="44" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D28" s="44" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B30" s="44" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D30" s="44" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="B31" s="44" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D31" s="44" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B33" s="44" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D33" s="44" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B34" s="44" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D34" s="44" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B35" s="44" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D35" s="44" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="44" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B36" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D36" s="54" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11064,46 +11100,46 @@
     </row>
     <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B38" s="44" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C38" s="55" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D38" s="56" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="E38" s="57"/>
     </row>
     <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B39" s="44" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C39" s="55" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D39" s="56" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E39" s="57"/>
     </row>
     <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="44" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B40" s="44" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D40" s="56" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="E40" s="57"/>
     </row>
@@ -11114,450 +11150,450 @@
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B42" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D42" s="58" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B43" s="44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D43" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B44" s="44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D44" s="44" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B45" s="44" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C45" s="44" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D45" s="44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B46" s="44" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D46" s="44" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B47" s="44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D47" s="44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B48" s="44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D48" s="44" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B49" s="44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D49" s="44" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B50" s="44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D50" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D51" s="44" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B52" s="44" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D52" s="44" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B53" s="44" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D53" s="44" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="44" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B54" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D54" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D56" s="58" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B57" s="44" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D57" s="44" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B58" s="44" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C58" s="44" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D58" s="44" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C59" s="44" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D59" s="44" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C60" s="44" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C61" s="44" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D61" s="44" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C62" s="44" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D62" s="44" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C63" s="44" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D63" s="44" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D64" s="44" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C65" s="44" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D65" s="44" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C66" s="44" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D66" s="44" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="44" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C67" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D67" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C69" s="44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D69" s="44" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C70" s="44" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D70" s="44" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C71" s="44" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D71" s="44" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C72" s="44" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D72" s="44" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C73" s="44" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D73" s="44" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C74" s="44" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D74" s="44" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="44" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C75" s="44" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D75" s="44" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -11608,7 +11644,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11624,22 +11660,22 @@
   <sheetData>
     <row r="1" s="62" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B1" s="60" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C1" s="60" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="E1" s="60" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F1" s="60" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
@@ -11664,20 +11700,20 @@
     </row>
     <row r="2" s="69" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="63" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B2" s="64" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C2" s="65" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-03-24  17-26</v>
+        <v>2024-07-12  10-19</v>
       </c>
       <c r="D2" s="66" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E2" s="66" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F2" s="67"/>
       <c r="G2" s="68"/>
